--- a/antennas_placement/buildingsPointsPart2.xlsx
+++ b/antennas_placement/buildingsPointsPart2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkiria01\Dropbox\GIS-Micropolis_v1\matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkiria01\Documents\GitHub\micropolis-testbed\antennas_placement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="178">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="175">
   <si>
     <t>1.0</t>
   </si>
@@ -1378,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,18 +1693,18 @@
         <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,18 +1836,18 @@
         <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1941,29 +1932,29 @@
         <v>148</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>154</v>
@@ -2043,18 +2034,7 @@
         <v>174</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
